--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3141.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3141.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9547616116873434</v>
+        <v>1.084468483924866</v>
       </c>
       <c r="B1">
-        <v>1.839238823438553</v>
+        <v>1.263489723205566</v>
       </c>
       <c r="C1">
-        <v>3.873368815187656</v>
+        <v>1.634562849998474</v>
       </c>
       <c r="D1">
-        <v>4.472670166549125</v>
+        <v>3.64272141456604</v>
       </c>
       <c r="E1">
-        <v>1.787099060343418</v>
+        <v>3.789305925369263</v>
       </c>
     </row>
   </sheetData>
